--- a/biology/Botanique/Jardin_de_la_Luna_Rossa/Jardin_de_la_Luna_Rossa.xlsx
+++ b/biology/Botanique/Jardin_de_la_Luna_Rossa/Jardin_de_la_Luna_Rossa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Jardin de la Luna Rossa de Caen est un petit musée d'art brut aménagé dans un jardin rue Damozanne, non loin de l'abbaye aux Hommes, derrière le Quartier Lorge.
@@ -512,11 +524,13 @@
           <t>Démarche</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le jardin est à l'origine un legs d'une habitante mais le lieu devait conserver sa finalité. Vaste de 950 m2 environ, il reste à l'abandon pendant 25 ans[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin est à l'origine un legs d'une habitante mais le lieu devait conserver sa finalité. Vaste de 950 m2 environ, il reste à l'abandon pendant 25 ans.
 À la fois inséré dans un cadre urbain et dans un jardin arboré, cet espace présente diverses œuvres d'artistes locaux, faites de béton ou utilisant des matériaux de récupération tels les tessons de céramique.
-Ce jardin-musée est géré par une association loi de 1901 fondée en 1996. Ouvert officiellement en juin 1998, il a pour but de sauvegarder et de mettre en valeur des œuvres d’art brut réalisées par des artistes autodidactes. Le musée est ouvert au public et l'accès en est libre, d'avril à fin octobre[1].
+Ce jardin-musée est géré par une association loi de 1901 fondée en 1996. Ouvert officiellement en juin 1998, il a pour but de sauvegarder et de mettre en valeur des œuvres d’art brut réalisées par des artistes autodidactes. Le musée est ouvert au public et l'accès en est libre, d'avril à fin octobre.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Artistes présentés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Fernand Châtelain (1899-1988)
 Henri Chéné (1913-1990)
